--- a/front/2023_front_schedule.xlsx
+++ b/front/2023_front_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81706\Downloads\課内会議\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\splju\Desktop\candd\ICT2\2課施策_2023\202312_仕様検討資料\フロントチーム資料_12月更新版\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AC5BA3-DF0F-4816-AEDE-A9651F62C7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293E299E-3B63-4B0C-8E08-AB443D414B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="972" yWindow="0" windowWidth="22068" windowHeight="12360" xr2:uid="{9B9F04CA-3C58-4525-8FE8-BE1792272E1E}"/>
+    <workbookView xWindow="14040" yWindow="1065" windowWidth="24240" windowHeight="16395" xr2:uid="{9B9F04CA-3C58-4525-8FE8-BE1792272E1E}"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="1" r:id="rId1"/>
@@ -79,15 +79,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【大場、千葉】
-　仕様を決める（来月課内会議までにどこかで打ち合わせさせてください）
-【渡邉】
-　dockerを使った起動方針を調べる
-【浅井、松永、板野】
-　vue.jsについて学習をする</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>フロントエンドorバックエンドのメンバー決め</t>
     <rPh sb="20" eb="21">
       <t>ギ</t>
@@ -102,18 +93,54 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>スケジュール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>製造　：アプリ作成</t>
+  </si>
+  <si>
+    <t>テスト：テスト設計、テスト仕様書、テスト成績書</t>
+  </si>
+  <si>
+    <t>計画　：スケジュール、使用言語、テーマ、担当者ごとの担当フェーズ</t>
+    <rPh sb="11" eb="13">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ゲンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計　：機能設計(詳細設計含む)、サンプル作成</t>
+    <rPh sb="21" eb="23">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【O、C】
+　仕様を決める（来月課内会議までにどこかで打ち合わせさせてください）
+【W】
+　dockerを使った起動方針を調べる
+【A、M、I】
+　vue.jsについて学習をする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>仕様書分担
-【大場】※ and スケジュール作成
+【O】※ and スケジュール作成
 ・概要(Word)
 　言語、バージョンをまとめる
 ・目的
 　課の出席管理機能の作成
-【千葉】※ and ICT2課出欠情報のサンプルを作成
+【C】※ and ICT2課出欠情報のサンプルを作成
 ・概要(Word)
 　言語、バージョンをまとめる
 ・目的
 　課の出席管理機能の作成
-【浅井、渡邉、松永、板野】
+【A、W、M、I】
 ・画面一覧
 　簡潔に一覧を作成→詳細はエクセルの画面図を参照
 ・画面図(Excel)
@@ -122,46 +149,10 @@
     <rPh sb="3" eb="5">
       <t>ブンタン</t>
     </rPh>
-    <rPh sb="7" eb="9">
-      <t>オオバ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="139" eb="141">
-      <t>サクセイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スケジュール</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メンバー：大場、千葉、浅井、渡邉、松永、板野</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>製造　：アプリ作成</t>
-  </si>
-  <si>
-    <t>テスト：テスト設計、テスト仕様書、テスト成績書</t>
-  </si>
-  <si>
-    <t>計画　：スケジュール、使用言語、テーマ、担当者ごとの担当フェーズ</t>
-    <rPh sb="11" eb="13">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ゲンゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>設計　：機能設計(詳細設計含む)、サンプル作成</t>
-    <rPh sb="21" eb="23">
-      <t>サクセイ</t>
-    </rPh>
+    <t>メンバー：O、C、A、W、M、I</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -733,9 +724,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -773,7 +764,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -879,7 +870,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1021,7 +1012,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1032,25 +1023,25 @@
   <dimension ref="B1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B3" s="28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="5" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C5" s="11"/>
       <c r="D5" s="30">
         <v>2023</v>
@@ -1069,7 +1060,7 @@
       <c r="N5" s="30"/>
       <c r="O5" s="32"/>
     </row>
-    <row r="6" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C6" s="2"/>
       <c r="D6" s="3">
         <v>8</v>
@@ -1108,7 +1099,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C7" s="8" t="s">
         <v>0</v>
       </c>
@@ -1133,7 +1124,7 @@
       <c r="N7" s="13"/>
       <c r="O7" s="16"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C8" s="9" t="s">
         <v>1</v>
       </c>
@@ -1156,7 +1147,7 @@
       <c r="N8" s="18"/>
       <c r="O8" s="21"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C9" s="9" t="s">
         <v>2</v>
       </c>
@@ -1179,7 +1170,7 @@
       <c r="N9" s="18"/>
       <c r="O9" s="21"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C10" s="9" t="s">
         <v>3</v>
       </c>
@@ -1204,7 +1195,7 @@
       </c>
       <c r="O10" s="21"/>
     </row>
-    <row r="11" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C11" s="10" t="s">
         <v>4</v>
       </c>
@@ -1223,24 +1214,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1258,15 +1249,15 @@
   <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="4" max="4" width="50.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -1274,10 +1265,10 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="36" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
         <v>7</v>
       </c>
@@ -1285,20 +1276,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="126" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:4" ht="131.25" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="342" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="356.25" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
